--- a/光伏基础计算(1).xlsx
+++ b/光伏基础计算(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\陈杰颖的文件\科技项目\我的科技项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProject\VScode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A163EB3-0F4B-4F02-9031-C8C752AA39CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218E33AA-FB86-49E8-83AF-61323EC32A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="双立柱条形基础稳定验算" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="178">
   <si>
     <t>基本输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1967,6 +1967,10 @@
   </si>
   <si>
     <t>桩的水平抗力计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查表(可通过计算得出)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2315,15 +2319,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2340,9 +2335,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2397,6 +2389,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2440,7 +2444,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5990A476-9F76-47CC-A1D4-C9D311BBD97E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2494,7 +2498,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7538A1D0-58E2-4821-AA7A-B8C302144FFB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2533,9 +2537,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7228571" cy="2247619"/>
     <xdr:pic>
@@ -2559,7 +2563,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4495800"/>
+          <a:off x="333375" y="2895600"/>
           <a:ext cx="7228571" cy="2247619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2572,9 +2576,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7628571" cy="1438095"/>
     <xdr:pic>
@@ -2598,7 +2602,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2924175"/>
+          <a:off x="390525" y="838200"/>
           <a:ext cx="7628571" cy="1438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2610,10 +2614,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7704762" cy="3685714"/>
     <xdr:pic>
@@ -2637,7 +2641,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="3971925"/>
+          <a:off x="7820025" y="1704975"/>
           <a:ext cx="7704762" cy="3685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2649,10 +2653,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7790476" cy="1952381"/>
     <xdr:pic>
@@ -2676,7 +2680,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3771900" y="7753350"/>
+          <a:off x="7762875" y="5981700"/>
           <a:ext cx="7790476" cy="1952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2688,10 +2692,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5028571" cy="3676190"/>
     <xdr:pic>
@@ -2715,7 +2719,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="561975" y="6810375"/>
+          <a:off x="1609725" y="6096000"/>
           <a:ext cx="5028571" cy="3676190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3196,7 +3200,7 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="42" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -3217,7 +3221,7 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
@@ -3239,7 +3243,7 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="43"/>
       <c r="F4" s="4"/>
       <c r="H4" s="10"/>
     </row>
@@ -3251,7 +3255,7 @@
         <v>-0.95</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="18"/>
+      <c r="D5" s="44"/>
       <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
@@ -3265,7 +3269,7 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="42" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -3289,7 +3293,7 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="43"/>
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
@@ -3309,7 +3313,7 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="43"/>
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
@@ -3329,7 +3333,7 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="43"/>
       <c r="F9" s="4"/>
       <c r="H9" s="10"/>
     </row>
@@ -3343,7 +3347,7 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="43"/>
       <c r="F10" s="4" t="s">
         <v>34</v>
       </c>
@@ -3359,7 +3363,7 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="43"/>
       <c r="F11" s="4" t="s">
         <v>29</v>
       </c>
@@ -3381,7 +3385,7 @@
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="44"/>
       <c r="F12" s="4" t="s">
         <v>31</v>
       </c>
@@ -3603,7 +3607,7 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="42" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -3624,7 +3628,7 @@
       <c r="B3" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
@@ -3646,7 +3650,7 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="43"/>
       <c r="F4" s="4"/>
       <c r="H4" s="10"/>
     </row>
@@ -3658,7 +3662,7 @@
         <v>-0.95</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="18"/>
+      <c r="D5" s="44"/>
       <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
@@ -3672,7 +3676,7 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="42" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -3696,7 +3700,7 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="43"/>
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
@@ -3716,7 +3720,7 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="43"/>
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
@@ -3736,7 +3740,7 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="43"/>
       <c r="F9" s="4"/>
       <c r="H9" s="10"/>
     </row>
@@ -3750,7 +3754,7 @@
       <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="43"/>
       <c r="F10" s="4"/>
       <c r="H10" s="10"/>
     </row>
@@ -3764,7 +3768,7 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="43"/>
       <c r="F11" s="4" t="s">
         <v>34</v>
       </c>
@@ -3780,7 +3784,7 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="43"/>
       <c r="F12" s="4" t="s">
         <v>29</v>
       </c>
@@ -3802,7 +3806,7 @@
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="44"/>
       <c r="F13" s="4" t="s">
         <v>31</v>
       </c>
@@ -4075,7 +4079,7 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="42" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -4096,7 +4100,7 @@
       <c r="B3" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="4"/>
       <c r="H3" s="10"/>
     </row>
@@ -4110,7 +4114,7 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="43"/>
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
@@ -4124,7 +4128,7 @@
         <v>-0.95</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="18"/>
+      <c r="D5" s="44"/>
       <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
@@ -4144,7 +4148,7 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="42" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -4166,7 +4170,7 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="43"/>
       <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
@@ -4186,7 +4190,7 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="43"/>
       <c r="F8" s="4"/>
       <c r="H8" s="10"/>
     </row>
@@ -4200,7 +4204,7 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="43"/>
       <c r="F9" s="4" t="s">
         <v>34</v>
       </c>
@@ -4216,7 +4220,7 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="44"/>
       <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
@@ -4410,7 +4414,7 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="42" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -4431,7 +4435,7 @@
       <c r="B3" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="4"/>
       <c r="H3" s="10"/>
     </row>
@@ -4445,7 +4449,7 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="43"/>
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
@@ -4459,7 +4463,7 @@
         <v>-0.95</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="18"/>
+      <c r="D5" s="44"/>
       <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
@@ -4479,7 +4483,7 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="42" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -4501,7 +4505,7 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="43"/>
       <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
@@ -4518,7 +4522,7 @@
       <c r="B8" s="9">
         <v>0.628</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="43"/>
       <c r="F8" s="4"/>
       <c r="H8" s="10"/>
     </row>
@@ -4532,7 +4536,7 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="43"/>
       <c r="F9" s="4" t="s">
         <v>34</v>
       </c>
@@ -4548,7 +4552,7 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="43"/>
       <c r="F10" s="4" t="s">
         <v>29</v>
       </c>
@@ -4570,7 +4574,7 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="44"/>
       <c r="F11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4727,762 +4731,762 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="24">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21">
         <v>0.15</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="21">
         <v>0</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="17">
         <f>3.14*B4</f>
         <v>0.47099999999999997</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>40</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="17">
         <f>3.14/4*(B4*B4-C4*C4)</f>
         <v>1.7662500000000001E-2</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="17">
         <f>3.14/4*C4*C4</f>
         <v>0</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="17">
         <f>B4-2*E4/1000</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:9" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="17">
         <f>3.14*B4*(B4*B4+2*(D29-1)*D8*D6*D6)/32</f>
         <v>3.3999959249999997E-4</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="17">
         <f>B8*D6/2</f>
         <v>1.1899985737499998E-5</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="23">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="24">
         <f>B6*1000000*D8</f>
         <v>190.75500000000002</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="26" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="24">
+      <c r="A11" s="18"/>
+      <c r="B11" s="21">
         <v>5.3</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="21">
         <v>15</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="21">
         <v>13</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21">
         <v>10</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="21">
         <v>25</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="21">
         <v>0.8</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="24">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21">
         <v>65</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="21">
         <v>800</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="21">
         <v>1.4</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="29">
+      <c r="C20" s="18"/>
+      <c r="D20" s="25">
         <f>D4*B18*D18+C18*B6</f>
         <v>56.991</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="31">
+      <c r="C21" s="18"/>
+      <c r="D21" s="27">
         <f>D20/2</f>
         <v>28.4955</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="29">
+      <c r="C23" s="18"/>
+      <c r="D23" s="25">
         <f>D16*B18*D4*D18</f>
         <v>34.288799999999995</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="29">
+      <c r="C24" s="18"/>
+      <c r="D24" s="25">
         <f>D18*B6*25</f>
         <v>0.6181875</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="31">
+      <c r="C25" s="18"/>
+      <c r="D25" s="27">
         <f>D23/2+D24</f>
         <v>17.762587499999999</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-    </row>
-    <row r="28" spans="1:9" ht="87.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17">
         <v>30000</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="17">
         <v>200000</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="24">
         <f>C29/B29</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" ht="59.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="33">
+      <c r="A31" s="17"/>
+      <c r="B31" s="29">
         <f>0.85*B29*C8*1000</f>
         <v>303.44963630624994</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="17">
         <f>0.9*(1.5*B4+0.5)</f>
         <v>0.65249999999999997</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" ht="73.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17">
         <v>0.01</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="30">
         <v>10</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="24">
         <f>POWER(C33*1000*C31/B31,1/5)</f>
         <v>1.8471356015049323</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="22" t="s">
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="24">
+      <c r="A35" s="17"/>
+      <c r="B35" s="21">
         <v>1.4</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="24">
         <f>D33*B35</f>
         <v>2.5859898421069052</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="31">
         <v>3.5259999999999998</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="21" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="33">
         <f>0.75*D33^3*B31*B33/D35</f>
         <v>4.067821745013549</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21" t="s">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-    </row>
-    <row r="39" spans="1:9" ht="87.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="26" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A39" s="18"/>
+      <c r="B39" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="17">
         <v>2</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="17">
         <v>1.43</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="31">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="17">
         <f>3.14*B4*B4*(1+(D29-1)*D8)/4</f>
         <v>1.8743444999999997E-2</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-    </row>
-    <row r="41" spans="1:9" ht="69" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="26" t="s">
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9" ht="54.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="17">
         <v>1</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="17">
         <v>0.5</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="37">
+      <c r="C44" s="18"/>
+      <c r="D44" s="33">
         <f>0.75*D33*B40*C40*1000*B8*(1.25+22*D8)*(1+C42*C11/(B40*C40*1000*E40))/D40</f>
         <v>4.0791795064035288</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="37">
+      <c r="C45" s="18"/>
+      <c r="D45" s="33">
         <f>0.75*D33*B40*C40*1000*B8*(1.25+22*D8)*(1-B42*D11/(B40*C40*1000*E40))/D40</f>
         <v>2.7106914027094802</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5551,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26358E8-1CE8-4737-A774-94015B9FF8F8}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5563,98 +5567,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="19"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="16"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="19"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G60">
@@ -5670,31 +5674,31 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E65" s="45"/>
+      <c r="E65" s="41"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>174</v>
       </c>
-      <c r="B67" s="40">
+      <c r="B67" s="36">
         <v>2.5</v>
       </c>
       <c r="C67" t="s">
         <v>173</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="36">
         <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>172</v>
       </c>
-      <c r="F67" s="40">
+      <c r="F67" s="36">
         <v>13.5</v>
       </c>
       <c r="G67" t="s">
         <v>171</v>
       </c>
-      <c r="H67" s="40">
+      <c r="H67" s="36">
         <v>0.3</v>
       </c>
     </row>
@@ -5702,7 +5706,7 @@
       <c r="A68" t="s">
         <v>170</v>
       </c>
-      <c r="B68" s="40">
+      <c r="B68" s="36">
         <v>19</v>
       </c>
       <c r="C68" t="s">
@@ -5713,7 +5717,7 @@
       <c r="A69" t="s">
         <v>168</v>
       </c>
-      <c r="B69" s="40">
+      <c r="B69" s="36">
         <v>23</v>
       </c>
       <c r="C69" t="s">
@@ -5736,11 +5740,11 @@
       <c r="A71" t="s">
         <v>165</v>
       </c>
-      <c r="B71" s="40">
+      <c r="B71" s="36">
         <v>0.38</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -5753,7 +5757,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="39" t="s">
         <v>163</v>
       </c>
       <c r="B73">
@@ -5762,7 +5766,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="57" x14ac:dyDescent="0.2">
-      <c r="A74" s="44" t="s">
+      <c r="A74" s="40" t="s">
         <v>162</v>
       </c>
       <c r="B74">
@@ -5771,10 +5775,10 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="40">
+      <c r="B75" s="36">
         <v>0.76100000000000001</v>
       </c>
       <c r="C75" t="s">
@@ -5789,7 +5793,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="39" t="s">
         <v>158</v>
       </c>
       <c r="B76">
@@ -5808,7 +5812,7 @@
       <c r="A77" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="42">
+      <c r="B77" s="38">
         <f>B70*B73*B67^2/(B74*B76)</f>
         <v>11.984494109374436</v>
       </c>
@@ -5866,7 +5870,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>149</v>
       </c>
       <c r="B2">
@@ -5889,7 +5893,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>147</v>
       </c>
       <c r="B3">
@@ -5900,7 +5904,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="37" t="s">
         <v>145</v>
       </c>
       <c r="B4">
@@ -5908,7 +5912,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="37" t="s">
         <v>144</v>
       </c>
       <c r="B5">
@@ -5916,7 +5920,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="37" t="s">
         <v>143</v>
       </c>
       <c r="B6">
@@ -5924,7 +5928,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="37" t="s">
         <v>142</v>
       </c>
       <c r="B7">
@@ -5932,7 +5936,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="35" t="s">
         <v>141</v>
       </c>
       <c r="B8">
@@ -5940,7 +5944,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="36" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5962,7 +5966,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="35" t="s">
         <v>134</v>
       </c>
       <c r="B14">
@@ -5979,7 +5983,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="35" t="s">
         <v>131</v>
       </c>
       <c r="B15">
@@ -5996,7 +6000,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="35" t="s">
         <v>133</v>
       </c>
       <c r="B16">
@@ -6022,7 +6026,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="35" t="s">
         <v>132</v>
       </c>
       <c r="B18">
@@ -6039,7 +6043,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="35" t="s">
         <v>139</v>
       </c>
       <c r="B19">
@@ -6124,7 +6128,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="36" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6146,7 +6150,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="35" t="s">
         <v>134</v>
       </c>
       <c r="B28">
@@ -6163,7 +6167,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="35" t="s">
         <v>131</v>
       </c>
       <c r="B29">
@@ -6180,7 +6184,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="35" t="s">
         <v>133</v>
       </c>
       <c r="B30">
@@ -6206,7 +6210,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="35" t="s">
         <v>132</v>
       </c>
       <c r="B32">
@@ -6223,7 +6227,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="35" t="s">
         <v>131</v>
       </c>
       <c r="B33">
@@ -6294,12 +6298,12 @@
       <c r="A37" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="35" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="35" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6307,7 +6311,7 @@
       <c r="A56" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="38" t="str">
+      <c r="B56" s="34" t="str">
         <f>IF($G$2&lt;$B$7,"上叶片以上",IF($G$2&lt;$B$8,"上下叶片中",IF($G$2&lt;$B$4,"下叶片到桩尖","桩尖以下")))</f>
         <v>上叶片以上</v>
       </c>
